--- a/Public/excel/test11.xlsx
+++ b/Public/excel/test11.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="helen" sheetId="1" r:id="rId4"/>
+    <sheet name="货运全数据" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -15,18 +15,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
-    <t>B1</t>
+    <t>嵊州市锡锋物流运输公司</t>
   </si>
   <si>
-    <t>张三</t>
+    <t>日期</t>
   </si>
   <si>
-    <t>B2</t>
+    <t>车号</t>
   </si>
   <si>
-    <t>李四</t>
+    <t>货物名称</t>
+  </si>
+  <si>
+    <t>装货地</t>
+  </si>
+  <si>
+    <t>卸货地</t>
+  </si>
+  <si>
+    <t>发货吨位</t>
+  </si>
+  <si>
+    <t>卸货吨位</t>
+  </si>
+  <si>
+    <t>票号</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>2018-01-20</t>
+  </si>
+  <si>
+    <t>浙A66N1411</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>2018-01-17</t>
+  </si>
+  <si>
+    <t>浙D66N13</t>
+  </si>
+  <si>
+    <t>货物11</t>
+  </si>
+  <si>
+    <t>嵊州三界</t>
+  </si>
+  <si>
+    <t>杭州萧山</t>
+  </si>
+  <si>
+    <t>2018-01-25</t>
   </si>
 </sst>
 </file>
@@ -34,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -43,6 +88,24 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,15 +119,47 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="2" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="2" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="2" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -365,32 +460,1643 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="13" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="6" max="6" width="9.10" customWidth="true" style="1"/>
+    <col min="7" max="7" width="9.10" customWidth="true" style="1"/>
+    <col min="9" max="9" width="9.10" customWidth="true" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>111</v>
+      </c>
+      <c r="D4" s="3">
+        <v>222</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5">
+        <v>12.66</v>
+      </c>
+      <c r="G4" s="5">
+        <v>12.55</v>
+      </c>
+      <c r="H4" s="3">
+        <v>444444</v>
+      </c>
+      <c r="I4" s="5">
+        <v>99999999.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5">
+        <v>50</v>
+      </c>
+      <c r="G5" s="5">
+        <v>50</v>
+      </c>
+      <c r="H5" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I5" s="5">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>111</v>
+      </c>
+      <c r="D6" s="3">
+        <v>222</v>
+      </c>
+      <c r="E6" s="3">
+        <v>222</v>
+      </c>
+      <c r="F6" s="5">
+        <v>100</v>
+      </c>
+      <c r="G6" s="5">
+        <v>100</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5555555</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5">
+        <v>50</v>
+      </c>
+      <c r="H7" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I7" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5">
+        <v>50</v>
+      </c>
+      <c r="H8" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I8" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5">
+        <v>50</v>
+      </c>
+      <c r="G9" s="5">
+        <v>50</v>
+      </c>
+      <c r="H9" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I9" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5">
+        <v>50</v>
+      </c>
+      <c r="G10" s="5">
+        <v>50</v>
+      </c>
+      <c r="H10" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I10" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5">
+        <v>50</v>
+      </c>
+      <c r="G11" s="5">
+        <v>50</v>
+      </c>
+      <c r="H11" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I11" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="5">
+        <v>50</v>
+      </c>
+      <c r="G12" s="5">
+        <v>50</v>
+      </c>
+      <c r="H12" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I12" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="5">
+        <v>50</v>
+      </c>
+      <c r="G13" s="5">
+        <v>50</v>
+      </c>
+      <c r="H13" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I13" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="5">
+        <v>50</v>
+      </c>
+      <c r="G14" s="5">
+        <v>50</v>
+      </c>
+      <c r="H14" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I14" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="5">
+        <v>50</v>
+      </c>
+      <c r="G15" s="5">
+        <v>50</v>
+      </c>
+      <c r="H15" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I15" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="5">
+        <v>50</v>
+      </c>
+      <c r="G16" s="5">
+        <v>50</v>
+      </c>
+      <c r="H16" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I16" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="5">
+        <v>50</v>
+      </c>
+      <c r="G17" s="5">
+        <v>50</v>
+      </c>
+      <c r="H17" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I17" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="5">
+        <v>50</v>
+      </c>
+      <c r="G18" s="5">
+        <v>50</v>
+      </c>
+      <c r="H18" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I18" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="5">
+        <v>50</v>
+      </c>
+      <c r="G19" s="5">
+        <v>50</v>
+      </c>
+      <c r="H19" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I19" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="5">
+        <v>50</v>
+      </c>
+      <c r="G20" s="5">
+        <v>50</v>
+      </c>
+      <c r="H20" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I20" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="5">
+        <v>50</v>
+      </c>
+      <c r="G21" s="5">
+        <v>50</v>
+      </c>
+      <c r="H21" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I21" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5">
+        <v>50</v>
+      </c>
+      <c r="G22" s="5">
+        <v>50</v>
+      </c>
+      <c r="H22" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I22" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="5">
+        <v>50</v>
+      </c>
+      <c r="G23" s="5">
+        <v>50</v>
+      </c>
+      <c r="H23" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I23" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="5">
+        <v>50</v>
+      </c>
+      <c r="G24" s="5">
+        <v>50</v>
+      </c>
+      <c r="H24" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I24" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="5">
+        <v>50</v>
+      </c>
+      <c r="G25" s="5">
+        <v>50</v>
+      </c>
+      <c r="H25" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I25" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="5">
+        <v>50</v>
+      </c>
+      <c r="G26" s="5">
+        <v>50</v>
+      </c>
+      <c r="H26" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I26" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="5">
+        <v>50</v>
+      </c>
+      <c r="G27" s="5">
+        <v>50</v>
+      </c>
+      <c r="H27" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I27" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="5">
+        <v>50</v>
+      </c>
+      <c r="G28" s="5">
+        <v>50</v>
+      </c>
+      <c r="H28" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I28" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="5">
+        <v>50</v>
+      </c>
+      <c r="G29" s="5">
+        <v>50</v>
+      </c>
+      <c r="H29" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I29" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="5">
+        <v>50</v>
+      </c>
+      <c r="G30" s="5">
+        <v>50</v>
+      </c>
+      <c r="H30" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I30" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="5">
+        <v>50</v>
+      </c>
+      <c r="G31" s="5">
+        <v>50</v>
+      </c>
+      <c r="H31" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I31" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="5">
+        <v>50</v>
+      </c>
+      <c r="G32" s="5">
+        <v>50</v>
+      </c>
+      <c r="H32" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I32" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="5">
+        <v>50</v>
+      </c>
+      <c r="G33" s="5">
+        <v>50</v>
+      </c>
+      <c r="H33" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I33" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="5">
+        <v>50</v>
+      </c>
+      <c r="G34" s="5">
+        <v>50</v>
+      </c>
+      <c r="H34" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I34" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="5">
+        <v>50</v>
+      </c>
+      <c r="G35" s="5">
+        <v>50</v>
+      </c>
+      <c r="H35" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I35" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="5">
+        <v>50</v>
+      </c>
+      <c r="G36" s="5">
+        <v>50</v>
+      </c>
+      <c r="H36" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I36" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="5">
+        <v>50</v>
+      </c>
+      <c r="G37" s="5">
+        <v>50</v>
+      </c>
+      <c r="H37" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I37" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="5">
+        <v>50</v>
+      </c>
+      <c r="G38" s="5">
+        <v>50</v>
+      </c>
+      <c r="H38" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I38" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="5">
+        <v>50</v>
+      </c>
+      <c r="G39" s="5">
+        <v>50</v>
+      </c>
+      <c r="H39" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I39" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="5">
+        <v>50</v>
+      </c>
+      <c r="G40" s="5">
+        <v>50</v>
+      </c>
+      <c r="H40" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I40" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="5">
+        <v>50</v>
+      </c>
+      <c r="G41" s="5">
+        <v>50</v>
+      </c>
+      <c r="H41" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I41" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="5">
+        <v>50</v>
+      </c>
+      <c r="G42" s="5">
+        <v>50</v>
+      </c>
+      <c r="H42" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I42" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="5">
+        <v>50</v>
+      </c>
+      <c r="G43" s="5">
+        <v>50</v>
+      </c>
+      <c r="H43" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I43" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="5">
+        <v>50</v>
+      </c>
+      <c r="G44" s="5">
+        <v>50</v>
+      </c>
+      <c r="H44" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I44" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="5">
+        <v>50</v>
+      </c>
+      <c r="G45" s="5">
+        <v>50</v>
+      </c>
+      <c r="H45" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I45" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="5">
+        <v>50</v>
+      </c>
+      <c r="G46" s="5">
+        <v>50</v>
+      </c>
+      <c r="H46" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I46" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="5">
+        <v>50</v>
+      </c>
+      <c r="G47" s="5">
+        <v>50</v>
+      </c>
+      <c r="H47" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I47" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="5">
+        <v>50</v>
+      </c>
+      <c r="G48" s="5">
+        <v>50</v>
+      </c>
+      <c r="H48" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I48" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="5">
+        <v>50</v>
+      </c>
+      <c r="G49" s="5">
+        <v>50</v>
+      </c>
+      <c r="H49" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I49" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="5">
+        <v>50</v>
+      </c>
+      <c r="G50" s="5">
+        <v>50</v>
+      </c>
+      <c r="H50" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I50" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="5">
+        <v>50</v>
+      </c>
+      <c r="G51" s="5">
+        <v>50</v>
+      </c>
+      <c r="H51" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I51" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="5">
+        <v>50</v>
+      </c>
+      <c r="G52" s="5">
+        <v>50</v>
+      </c>
+      <c r="H52" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I52" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="5">
+        <v>50</v>
+      </c>
+      <c r="G53" s="5">
+        <v>50</v>
+      </c>
+      <c r="H53" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I53" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="5">
+        <v>50</v>
+      </c>
+      <c r="G54" s="5">
+        <v>50</v>
+      </c>
+      <c r="H54" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I54" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="5">
+        <v>50</v>
+      </c>
+      <c r="G55" s="5">
+        <v>50</v>
+      </c>
+      <c r="H55" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I55" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="5">
+        <v>50</v>
+      </c>
+      <c r="G56" s="5">
+        <v>50</v>
+      </c>
+      <c r="H56" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I56" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="5">
+        <v>50</v>
+      </c>
+      <c r="G57" s="5">
+        <v>50</v>
+      </c>
+      <c r="H57" s="3">
+        <v>111111</v>
+      </c>
+      <c r="I57" s="5">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="A1:I2"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
